--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1384376.836058148</v>
+        <v>1489316.066233514</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12561851.30939063</v>
+        <v>12443012.75936921</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10643632.89598292</v>
+        <v>10659950.34304355</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>199.1961742994382</v>
+        <v>280.8123722162927</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>81.7368617847615</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>82.1541989171381</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>129.138085135642</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>372.7909253482788</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>34.91604790470822</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>42.55093335596884</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>114.9470312412299</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>297.2669997576634</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>45.84953208158526</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>176.4541801346813</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>18.70843787977307</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>176.76214411214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,16 +2010,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>281.4692737200721</v>
+        <v>239.7247859410136</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2245,13 +2247,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2290,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>77.93612009725524</v>
+        <v>97.02629574295564</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>26.05480806223585</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>55.52079624060555</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2792,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>45.66054613217769</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>111.3213230702139</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3029,13 +3031,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.1222404669086</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3430,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803359</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>88.27810958517541</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3898,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>111.321323070213</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>60.11729550773637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1879.82957821044</v>
+        <v>1532.019095624401</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X2" t="n">
-        <v>2656.568750250373</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="Y2" t="n">
-        <v>2266.429418274562</v>
+        <v>1918.618935688523</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>593.9942835760969</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="C4" t="n">
-        <v>593.9942835760969</v>
+        <v>623.9439354791607</v>
       </c>
       <c r="D4" t="n">
-        <v>443.8776441637611</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E4" t="n">
-        <v>295.964550581368</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F4" t="n">
-        <v>149.0746030834577</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>149.0746030834577</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>149.0746030834577</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1513.842048484845</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V4" t="n">
-        <v>1513.842048484845</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W4" t="n">
-        <v>1224.424878447884</v>
+        <v>844.7365146226908</v>
       </c>
       <c r="X4" t="n">
-        <v>996.4353275498668</v>
+        <v>844.7365146226908</v>
       </c>
       <c r="Y4" t="n">
-        <v>775.6427484063366</v>
+        <v>623.9439354791607</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221567</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C5" t="n">
-        <v>1381.278680221567</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D5" t="n">
-        <v>1023.012981614817</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>1023.012981614817</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>612.0270768252092</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>196.9546266702056</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.48361052258</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261501</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.878520285689</v>
+        <v>1248.370234799863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>792.054313852967</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>623.1181309250601</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.594421205412</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="X7" t="n">
-        <v>1091.613680441807</v>
+        <v>1048.115628253778</v>
       </c>
       <c r="Y7" t="n">
-        <v>1091.613680441807</v>
+        <v>827.323049110248</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4802,19 +4804,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4832,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915837</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.9977502341333</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="C10" t="n">
-        <v>607.0615673062264</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>259.0419618825936</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>259.0419618825936</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.67533979849</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.67533979849</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1178.438794207903</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>1178.438794207903</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>957.646215064373</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="11">
@@ -5030,40 +5032,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5075,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096659</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892776</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5270,40 +5272,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5312,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5364,16 +5366,16 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5531,13 +5533,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5601,13 +5603,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>701.4712640439268</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>532.5350811160199</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>382.4184417036842</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1876.003517158562</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1621.319028952675</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1331.901858915714</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>1103.912308017697</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>883.1197288741665</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5749,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5829,22 +5831,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.7774158311365</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C22" t="n">
-        <v>552.8412329032296</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5908,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2185.384895601574</v>
+        <v>2166.101889898846</v>
       </c>
       <c r="U22" t="n">
-        <v>1896.309668945771</v>
+        <v>1877.026663243044</v>
       </c>
       <c r="V22" t="n">
-        <v>1641.625180739884</v>
+        <v>1622.342175037157</v>
       </c>
       <c r="W22" t="n">
-        <v>1352.208010702924</v>
+        <v>1332.925005000197</v>
       </c>
       <c r="X22" t="n">
-        <v>1124.218459804906</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y22" t="n">
-        <v>903.4258806613763</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6072,16 +6074,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,55 +6123,55 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E25" t="n">
-        <v>261.8464821474262</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F25" t="n">
-        <v>261.8464821474262</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
         <v>2264.108249235165</v>
@@ -6187,10 +6189,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3007.624207651098</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>2838.688024723192</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>2688.571385310856</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>2540.658291728463</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>2393.768344230552</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421535</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765733</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559846</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624868</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>3189.272672481338</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,31 +6475,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
         <v>3467.980956852889</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>3047.734188001556</v>
       </c>
       <c r="C31" t="n">
-        <v>2757.723669558405</v>
+        <v>2878.798005073649</v>
       </c>
       <c r="D31" t="n">
-        <v>2607.607030146069</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="E31" t="n">
-        <v>2607.607030146069</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="F31" t="n">
-        <v>2607.607030146069</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>4511.341667771992</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>4511.341667771992</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>4222.26644111619</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>3967.581952910304</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>3678.164782873343</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>3450.175231975326</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>3229.382652831796</v>
       </c>
     </row>
     <row r="32">
@@ -6680,7 +6682,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332388</v>
@@ -6713,34 +6715,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2222.001901828445</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429803</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6950,34 +6952,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>3047.734188001556</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>2878.798005073649</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797187</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S37" t="n">
-        <v>2390.881471216014</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="T37" t="n">
-        <v>2171.280006238955</v>
+        <v>4511.341667771992</v>
       </c>
       <c r="U37" t="n">
-        <v>1882.204779583153</v>
+        <v>4222.26644111619</v>
       </c>
       <c r="V37" t="n">
-        <v>1627.520291377266</v>
+        <v>3967.581952910304</v>
       </c>
       <c r="W37" t="n">
-        <v>1338.103121340305</v>
+        <v>3678.164782873343</v>
       </c>
       <c r="X37" t="n">
-        <v>1110.113570442288</v>
+        <v>3450.175231975326</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>3229.382652831796</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7190,31 +7192,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000582</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000582</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7491,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>2854.44064873475</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>2854.44064873475</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>3482.038612289356</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528643</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>54.95314511566528</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>84.94186588374703</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>75.37549921168795</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23896,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>4.71520066917202</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.469330230033</v>
+        <v>120.3791545843326</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>139.469330230033</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>110.0033420516633</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>111.7546635373309</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>119.8635921600912</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>69.70496293143073</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>0.587414922128545</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25318,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>39.70888054695234</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>58.15585306139376</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012547</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>106.0841272570753</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>932211.2066074915</v>
+        <v>940529.9051089906</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>932211.2066074915</v>
+        <v>940529.9051089906</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>916579.1401614296</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>916579.1401614296</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614296</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614296</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614296</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>916579.1401614293</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>916579.1401614296</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.106165177</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="I2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>504466.6248062539</v>
       </c>
-      <c r="J2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="K2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062539</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="N2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>88524.23512810787</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>88524.23512810789</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
         <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1012051.815251916</v>
+        <v>-831264.7235426897</v>
       </c>
       <c r="C6" t="n">
-        <v>316692.9304756757</v>
+        <v>283487.0600332299</v>
       </c>
       <c r="D6" t="n">
-        <v>316692.9304756761</v>
+        <v>124065.7900353378</v>
       </c>
       <c r="E6" t="n">
-        <v>68594.43281823484</v>
+        <v>68594.43281823458</v>
       </c>
       <c r="F6" t="n">
         <v>394006.8946255901</v>
       </c>
       <c r="G6" t="n">
-        <v>394006.8946255901</v>
+        <v>394006.89462559</v>
       </c>
       <c r="H6" t="n">
         <v>394006.89462559</v>
       </c>
       <c r="I6" t="n">
+        <v>394006.89462559</v>
+      </c>
+      <c r="J6" t="n">
+        <v>226401.7168156077</v>
+      </c>
+      <c r="K6" t="n">
         <v>394006.8946255902</v>
       </c>
-      <c r="J6" t="n">
-        <v>176475.6922283127</v>
-      </c>
-      <c r="K6" t="n">
-        <v>394006.89462559</v>
-      </c>
       <c r="L6" t="n">
-        <v>394006.8946255901</v>
+        <v>345712.9246173994</v>
       </c>
       <c r="M6" t="n">
         <v>308951.8666900782</v>
@@ -26558,10 +26560,10 @@
         <v>394006.89462559</v>
       </c>
       <c r="O6" t="n">
-        <v>394006.89462559</v>
+        <v>394006.8946255901</v>
       </c>
       <c r="P6" t="n">
-        <v>394006.8946255901</v>
+        <v>394006.8946255902</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>166.0767174715693</v>
+        <v>84.46051955471484</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14.61555862507662</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>204.3687994194529</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>165.4696792516785</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>13.44701330777474</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>144.9159322772291</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>183.1587220330683</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>239.736010379453</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27904,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>88.97093889839016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>99.57151594134598</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28064,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>110.0688182019097</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -30277,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30426,7 +30428,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>570.6116741576916</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968498</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>353.2560498238272</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32321,31 +32323,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N18" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P21" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496632</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,31 +33034,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>574.6535388222619</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>468.3778278510275</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>248.7449369209195</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391492</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>401.521336481369</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,25 +34453,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>279.2419622547056</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>352.6335057535154</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>271.5293621272318</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>432.0572943778175</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35731,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>213.2742757378057</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,19 +35971,19 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N18" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P21" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>171.2123056344834</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>432.0572943778175</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640639</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>334.4034204366973</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075158</v>
+        <v>263.67989750701</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>140.6875824748315</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1489316.066233514</v>
+        <v>1485220.424728748</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>280.8123722162927</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>29.33515146580069</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>82.1541989171381</v>
+        <v>86.73006700127442</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>81.28104349636091</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>372.7909253482788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.91604790470822</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>30.39104031894544</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>282.6988068886421</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>114.9470312412299</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>45.84953208158526</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>259.0206322914232</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.70843787977307</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>239.7247859410136</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.043911798777185</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>97.02629574295564</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>105.6507867899574</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>235.5696871035121</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>48.85497112745762</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>111.3213230702139</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,16 +3243,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.1222404669086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>177.6965697803359</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>18.7084378797731</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>261.9345988277395</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>146.1850499531015</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1532.019095624401</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="C2" t="n">
-        <v>1248.370234799863</v>
+        <v>1606.350901856218</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.370234799863</v>
+        <v>1248.085203249468</v>
       </c>
       <c r="E2" t="n">
-        <v>1248.370234799863</v>
+        <v>862.2969506512234</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>451.3110458616158</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4327,16 +4327,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1918.618935688523</v>
+        <v>1975.31341879663</v>
       </c>
     </row>
     <row r="3">
@@ -4397,37 +4397,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735141</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.79372942566</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>623.9439354791607</v>
+        <v>663.7249087127072</v>
       </c>
       <c r="C4" t="n">
-        <v>623.9439354791607</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329314</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>927.7205539329314</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>844.7365146226908</v>
+        <v>1294.155503584494</v>
       </c>
       <c r="X4" t="n">
-        <v>844.7365146226908</v>
+        <v>1066.165952686477</v>
       </c>
       <c r="Y4" t="n">
-        <v>623.9439354791607</v>
+        <v>845.373373542947</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1248.370234799863</v>
+        <v>918.0161179218642</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.370234799863</v>
+        <v>549.0536009814525</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.370234799863</v>
+        <v>549.0536009814525</v>
       </c>
       <c r="E5" t="n">
-        <v>1248.370234799863</v>
+        <v>549.0536009814525</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437142</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4588,31 +4588,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453058</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.92672505065</v>
+        <v>918.0161179218642</v>
       </c>
       <c r="Y5" t="n">
-        <v>1248.370234799863</v>
+        <v>918.0161179218642</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>168.0008189145203</v>
       </c>
       <c r="K6" t="n">
-        <v>507.2413987429755</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L6" t="n">
-        <v>801.9449557744472</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M6" t="n">
-        <v>1165.206974733667</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1552.492103330613</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1884.562538506774</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>792.054313852967</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C7" t="n">
-        <v>623.1181309250601</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D7" t="n">
-        <v>473.0014915127243</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1605.74809955031</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253778</v>
+        <v>1316.629762054147</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253778</v>
+        <v>1316.629762054147</v>
       </c>
       <c r="W7" t="n">
-        <v>1048.115628253778</v>
+        <v>1316.629762054147</v>
       </c>
       <c r="X7" t="n">
-        <v>1048.115628253778</v>
+        <v>1088.64021115613</v>
       </c>
       <c r="Y7" t="n">
-        <v>827.323049110248</v>
+        <v>867.8476320126</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.047335491681</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1734.047335491681</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
         <v>1617.939223126803</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531615</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555803</v>
+        <v>2630.721789066533</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4907,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4928,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.1586012949293</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C10" t="n">
-        <v>409.1586012949293</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D10" t="n">
-        <v>259.0419618825936</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>259.0419618825936</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4989,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251691</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y10" t="n">
-        <v>590.8070661251691</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,37 +5029,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>924.8344286397187</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2074.122646505558</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2497.745796000626</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,7 +5266,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,16 +5275,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5296,7 +5296,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852256</v>
@@ -5308,10 +5308,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5509,37 +5509,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>702.4944101284095</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C22" t="n">
-        <v>533.5582272005026</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D22" t="n">
-        <v>383.4415877881669</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2445.908627217859</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.053792872764</v>
       </c>
       <c r="T22" t="n">
-        <v>2166.101889898846</v>
+        <v>2043.452327895704</v>
       </c>
       <c r="U22" t="n">
-        <v>1877.026663243044</v>
+        <v>1754.377101239902</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.342175037157</v>
+        <v>1499.692613034015</v>
       </c>
       <c r="W22" t="n">
-        <v>1332.925005000197</v>
+        <v>1210.275442997055</v>
       </c>
       <c r="X22" t="n">
-        <v>1104.935454102179</v>
+        <v>982.2858920990373</v>
       </c>
       <c r="Y22" t="n">
-        <v>884.1428749586493</v>
+        <v>982.2858920990373</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,7 +6238,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,13 +6247,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578601</v>
@@ -6381,55 +6381,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,28 +6475,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3047.734188001556</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2878.798005073649</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>2728.681365661314</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661314</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4511.341667771992</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4511.341667771992</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4222.26644111619</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3967.581952910304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3678.164782873343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3450.175231975326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>3229.382652831796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832228</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>634.9279362553159</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.70136564882</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134625</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3047.734188001556</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2878.798005073649</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.681365661314</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.681365661314</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661314</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398594</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4511.341667771992</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4222.26644111619</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3967.581952910304</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3678.164782873343</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3450.175231975326</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3229.382652831796</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>506.2737913123336</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>194.8007783998291</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>194.8007783998291</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7736,19 +7736,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54.95314511566528</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>154.0169020165197</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154991</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566571</v>
       </c>
       <c r="K6" t="n">
-        <v>84.94186588374703</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7255247667961</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823058</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>46.45968844823051</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>65.3313349113445</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>120.3791545843326</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>111.7546635373309</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>50.61478728573201</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>69.70496293143073</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.587414922128545</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>39.70888054695234</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>121.5862749664508</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>24.58839950885152</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>139.9994244361426</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>916579.1401614296</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>916579.1401614296</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>916579.1401614296</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>916579.1401614296</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
   </sheetData>
@@ -26331,31 +26331,31 @@
         <v>504466.6248062536</v>
       </c>
       <c r="H2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="I2" t="n">
+        <v>504466.6248062538</v>
+      </c>
+      <c r="J2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="J2" t="n">
-        <v>504466.6248062539</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504466.6248062539</v>
       </c>
       <c r="L2" t="n">
         <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="N2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>504466.6248062536</v>
       </c>
-      <c r="O2" t="n">
-        <v>504466.6248062538</v>
-      </c>
       <c r="P2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403384</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819089</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921026</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.2351281078</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
     </row>
     <row r="5">
@@ -26527,43 +26527,43 @@
         <v>283487.0600332299</v>
       </c>
       <c r="D6" t="n">
-        <v>124065.7900353378</v>
+        <v>124065.7900353374</v>
       </c>
       <c r="E6" t="n">
-        <v>68594.43281823458</v>
+        <v>68247.05356387775</v>
       </c>
       <c r="F6" t="n">
-        <v>394006.8946255901</v>
+        <v>393659.5153712335</v>
       </c>
       <c r="G6" t="n">
-        <v>394006.89462559</v>
+        <v>393659.5153712329</v>
       </c>
       <c r="H6" t="n">
-        <v>394006.89462559</v>
+        <v>393659.515371233</v>
       </c>
       <c r="I6" t="n">
-        <v>394006.89462559</v>
+        <v>393659.5153712331</v>
       </c>
       <c r="J6" t="n">
-        <v>226401.7168156077</v>
+        <v>226054.3375612505</v>
       </c>
       <c r="K6" t="n">
-        <v>394006.8946255902</v>
+        <v>393659.5153712329</v>
       </c>
       <c r="L6" t="n">
-        <v>345712.9246173994</v>
+        <v>345365.5453630422</v>
       </c>
       <c r="M6" t="n">
-        <v>308951.8666900782</v>
+        <v>308604.4874357212</v>
       </c>
       <c r="N6" t="n">
-        <v>394006.89462559</v>
+        <v>393659.5153712331</v>
       </c>
       <c r="O6" t="n">
-        <v>394006.8946255901</v>
+        <v>393659.5153712329</v>
       </c>
       <c r="P6" t="n">
-        <v>394006.8946255902</v>
+        <v>393659.515371233</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,7 +26804,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.7118084757595</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022545</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022545</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022545</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>84.46051955471484</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>382.2125513071533</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>204.3687994194529</v>
+        <v>199.7929313353166</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>325.5950022453505</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.44701330777474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>144.9159322772291</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>190.3576556782665</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>100.0350347748384</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>239.736010379453</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>99.57151594134598</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>27.50236604516778</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31281,7 +31281,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31299,7 +31299,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31314,13 +31314,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31369,22 +31369,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31436,7 +31436,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31451,10 +31451,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31469,13 +31469,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,37 +31837,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>195.8560084902121</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.2560498238272</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496632</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>263.7590256391492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>401.521336481369</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34456,22 +34456,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>352.6335057535154</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>489.4415840126426</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34947,7 +34947,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>117.9333660065831</v>
       </c>
       <c r="K6" t="n">
-        <v>271.5293621272318</v>
+        <v>451.0527332560633</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35026,16 +35026,16 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35102,7 +35102,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35111,7 +35111,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>140.6875824748315</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>55.8742344041906</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.2742757378057</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663299</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>132.4173135558158</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>263.67989750701</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38104,22 +38104,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_14_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1485220.424728748</v>
+        <v>1486980.955031533</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>24.66349443455814</v>
       </c>
       <c r="G2" t="n">
-        <v>29.33515146580069</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>153.2955958106149</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>86.73006700127442</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>81.28104349636091</v>
+        <v>258.2524625653406</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>30.39104031894544</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>282.6988068886421</v>
+        <v>282.6988068886412</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>259.0206322914232</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>35.55160172423379</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>142.6584215897761</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>18.70843787977262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.043911798777185</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2608,13 +2608,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>125.2851635392055</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>235.5696871035121</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>48.85497112745762</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>34.44047701880672</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W43" t="n">
-        <v>261.9345988277395</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>146.1850499531015</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4318,7 +4318,7 @@
         <v>862.2969506512234</v>
       </c>
       <c r="F2" t="n">
-        <v>451.3110458616158</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4327,19 +4327,19 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4385,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N3" t="n">
-        <v>1715.293511287796</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>663.7249087127072</v>
+        <v>535.0593816855418</v>
       </c>
       <c r="C4" t="n">
-        <v>494.7887257848004</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="D4" t="n">
-        <v>494.7887257848004</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E4" t="n">
-        <v>346.8756322024072</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1481.602083902159</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1481.602083902159</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1481.602083902159</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1226.917595696272</v>
       </c>
       <c r="W4" t="n">
-        <v>1294.155503584494</v>
+        <v>937.5004256593116</v>
       </c>
       <c r="X4" t="n">
-        <v>1066.165952686477</v>
+        <v>937.5004256593116</v>
       </c>
       <c r="Y4" t="n">
-        <v>845.373373542947</v>
+        <v>716.7078465157815</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>918.0161179218642</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="C5" t="n">
-        <v>549.0536009814525</v>
+        <v>1484.033655906824</v>
       </c>
       <c r="D5" t="n">
-        <v>549.0536009814525</v>
+        <v>1484.033655906824</v>
       </c>
       <c r="E5" t="n">
-        <v>549.0536009814525</v>
+        <v>1098.245403308579</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437142</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800309</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800309</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4585,34 +4585,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532449</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796629</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453058</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>1291.481876182944</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X5" t="n">
-        <v>918.0161179218642</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="Y5" t="n">
-        <v>918.0161179218642</v>
+        <v>1852.996172847235</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>168.0008189145203</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.543024838023</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694947</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>686.1991671823603</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>517.2629842544534</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>367.1463448421176</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800309</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312193</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1605.74809955031</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1316.629762054147</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1316.629762054147</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1316.629762054147</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>1088.64021115613</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>867.8476320126</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410104</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2630.721789066533</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2630.721789066533</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X8" t="n">
-        <v>2630.721789066533</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y8" t="n">
-        <v>2630.721789066533</v>
+        <v>2630.721789066532</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,34 +4901,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1837.464090846021</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.464090846021</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.827088531452</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.837537633435</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.044958489905</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,25 +5056,25 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273908</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239598</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.212916266271</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1522.212916266271</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2074.122646505558</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2497.745796000626</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5518,19 +5518,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>991.7436897307817</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1173.392154561021</v>
       </c>
     </row>
     <row r="20">
@@ -5734,22 +5734,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.6374272687975</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2445.908627217859</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2263.053792872764</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2043.452327895704</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1754.377101239902</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.692613034015</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1210.275442997055</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>982.2858920990373</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.2858920990373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6220,10 +6220,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6232,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,13 +6247,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>784.5811134804959</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C28" t="n">
-        <v>615.644930552589</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578601</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1959.113366595131</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1704.428878389244</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>1415.011708352283</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X28" t="n">
-        <v>1187.022157454266</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y28" t="n">
-        <v>966.2295783107356</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="29">
@@ -6463,10 +6463,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E31" t="n">
-        <v>513.8536007400712</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>366.9636532421608</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="32">
@@ -6697,10 +6697,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075813</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7311,19 +7311,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7393,16 +7393,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W43" t="n">
-        <v>1419.02150088521</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2049.400878868273</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1794.716390662386</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.299220625425</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.309669727408</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,19 +8069,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.387732507165</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>154.0169020165197</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.95314511566571</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>131.695219374394</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>24.58839950885172</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>65.3313349113445</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>40.23897475306337</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>50.61478728573201</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>191.2691783702304</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W43" t="n">
-        <v>24.58839950885152</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>139.9994244361426</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>916579.1401614294</v>
+        <v>916579.1401614295</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614296</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>916579.1401614295</v>
+        <v>916579.1401614294</v>
       </c>
     </row>
   </sheetData>
@@ -26325,10 +26325,10 @@
         <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062536</v>
@@ -26340,22 +26340,22 @@
         <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="L2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="L2" t="n">
-        <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="O2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403384</v>
+        <v>192627.1404403378</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819089</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
         <v>85055.02793551178</v>
@@ -26420,13 +26420,13 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921026</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.2351281078</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
         <v>9337.20035675659</v>
@@ -26438,7 +26438,7 @@
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
@@ -26447,13 +26447,13 @@
         <v>9337.20035675659</v>
       </c>
       <c r="L4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
         <v>9337.20035675659</v>
@@ -26472,7 +26472,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-831264.7235426897</v>
+        <v>-831264.7235426899</v>
       </c>
       <c r="C6" t="n">
-        <v>283487.0600332299</v>
+        <v>283487.0600332298</v>
       </c>
       <c r="D6" t="n">
-        <v>124065.7900353374</v>
+        <v>124065.7900353381</v>
       </c>
       <c r="E6" t="n">
-        <v>68247.05356387775</v>
+        <v>68559.69489279919</v>
       </c>
       <c r="F6" t="n">
-        <v>393659.5153712335</v>
+        <v>393972.1567001542</v>
       </c>
       <c r="G6" t="n">
-        <v>393659.5153712329</v>
+        <v>393972.1567001543</v>
       </c>
       <c r="H6" t="n">
-        <v>393659.515371233</v>
+        <v>393972.1567001542</v>
       </c>
       <c r="I6" t="n">
-        <v>393659.5153712331</v>
+        <v>393972.1567001544</v>
       </c>
       <c r="J6" t="n">
-        <v>226054.3375612505</v>
+        <v>226366.9788901717</v>
       </c>
       <c r="K6" t="n">
-        <v>393659.5153712329</v>
+        <v>393972.1567001543</v>
       </c>
       <c r="L6" t="n">
-        <v>345365.5453630422</v>
+        <v>345678.1866919635</v>
       </c>
       <c r="M6" t="n">
-        <v>308604.4874357212</v>
+        <v>308917.1287646425</v>
       </c>
       <c r="N6" t="n">
-        <v>393659.5153712331</v>
+        <v>393972.1567001543</v>
       </c>
       <c r="O6" t="n">
-        <v>393659.5153712329</v>
+        <v>393972.1567001542</v>
       </c>
       <c r="P6" t="n">
-        <v>393659.515371233</v>
+        <v>393972.1567001544</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757595</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022545</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973555</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022545</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022545</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973555</v>
@@ -27390,10 +27390,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>382.2125513071533</v>
       </c>
       <c r="G2" t="n">
-        <v>382.2125513071533</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27545,16 +27545,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,7 +27587,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>41.36686455112255</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27599,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>199.7929313353166</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>325.5950022453505</v>
+        <v>148.6235831763709</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27827,16 +27827,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>190.3576556782665</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>100.0350347748384</v>
+        <v>100.0350347748393</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>17.26178070013006</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,10 +28070,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>27.50236604516778</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31451,16 +31451,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>195.8560084902121</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32718,7 +32718,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
         <v>981.2715114159425</v>
@@ -33417,13 +33417,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33663,7 +33663,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>489.4415840126426</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>117.9333660065831</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560633</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>55.8742344041906</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
